--- a/AN-SNAP V4 grouper (DMN).xlsx
+++ b/AN-SNAP V4 grouper (DMN).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82cfe7acc6d68563/Documents/PyPI/github/pyDMNrules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{49D497BC-22E2-4A37-891A-69E458CF1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56D7C3C-05B4-4B72-BE49-381F5565F418}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{49D497BC-22E2-4A37-891A-69E458CF1613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC7CCA0-B79C-4565-B679-28C340A3114D}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="9" activeTab="13" xr2:uid="{107EBB60-7292-470E-BB17-95A9AB1C3129}"/>
+    <workbookView xWindow="28560" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="13" xr2:uid="{107EBB60-7292-470E-BB17-95A9AB1C3129}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="669">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -2227,7 +2227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2638,21 +2638,6 @@
         <color indexed="64"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -2813,7 +2798,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2871,272 +2856,308 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,55 +3178,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3540,11 +3519,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
     </row>
     <row r="3" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="14" t="s">
@@ -3567,7 +3546,7 @@
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="102" t="s">
         <v>307</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -3584,7 +3563,7 @@
       <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="101"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3578,7 @@
       <c r="B6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="101"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="13" t="s">
         <v>25</v>
       </c>
@@ -3614,7 +3593,7 @@
       <c r="B7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="13" t="s">
         <v>37</v>
       </c>
@@ -3629,7 +3608,7 @@
       <c r="B8" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="13" t="s">
         <v>39</v>
       </c>
@@ -3644,7 +3623,7 @@
       <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="13" t="s">
         <v>27</v>
       </c>
@@ -3659,7 +3638,7 @@
       <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="13" t="s">
         <v>41</v>
       </c>
@@ -3674,7 +3653,7 @@
       <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="105" t="s">
         <v>308</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -3691,7 +3670,7 @@
       <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="101"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="13" t="s">
         <v>34</v>
       </c>
@@ -3703,16 +3682,16 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>311</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="89" t="s">
         <v>503</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -3720,10 +3699,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="105" t="s">
         <v>309</v>
       </c>
       <c r="D14" s="13" t="s">
@@ -3735,10 +3714,10 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="13" t="s">
         <v>242</v>
       </c>
@@ -3748,10 +3727,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>364</v>
       </c>
       <c r="D16" s="13" t="s">
@@ -3765,10 +3744,10 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>350</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="109" t="s">
         <v>365</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -3782,10 +3761,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="107"/>
+      <c r="C18" s="109"/>
       <c r="D18" s="13" t="s">
         <v>361</v>
       </c>
@@ -3797,10 +3776,10 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="C19" s="107"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="13" t="s">
         <v>362</v>
       </c>
@@ -3810,10 +3789,10 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="105" t="s">
         <v>305</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -3827,10 +3806,10 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="C21" s="102"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="13" t="s">
         <v>268</v>
       </c>
@@ -3840,10 +3819,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="88" t="s">
         <v>528</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -3855,10 +3834,10 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="105" t="s">
         <v>306</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -3870,10 +3849,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="101"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="13" t="s">
         <v>290</v>
       </c>
@@ -3883,10 +3862,10 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="C25" s="101"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="13" t="s">
         <v>200</v>
       </c>
@@ -3896,10 +3875,10 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C26" s="102"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="13" t="s">
         <v>291</v>
       </c>
@@ -3912,7 +3891,7 @@
       <c r="B27" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="32" t="s">
         <v>310</v>
       </c>
       <c r="D27" s="13" t="s">
@@ -3924,10 +3903,10 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="32" t="s">
         <v>367</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -3944,7 +3923,7 @@
       <c r="B29" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="106" t="s">
         <v>399</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3961,7 +3940,7 @@
       <c r="B30" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="105"/>
+      <c r="C30" s="107"/>
       <c r="D30" s="1" t="s">
         <v>23</v>
       </c>
@@ -3976,7 +3955,7 @@
       <c r="B31" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="1" t="s">
         <v>395</v>
       </c>
@@ -4008,14 +3987,14 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C3:C19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="33.62890625" customWidth="1"/>
     <col min="3" max="3" width="19.26171875" customWidth="1"/>
-    <col min="4" max="4" width="17.3671875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="17.3671875" style="41" customWidth="1"/>
     <col min="5" max="5" width="17.3671875" customWidth="1"/>
     <col min="6" max="6" width="37.26171875" customWidth="1"/>
     <col min="7" max="7" width="17.15625" customWidth="1"/>
@@ -4030,50 +4009,50 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="M2" s="117" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="M2" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="N2" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="119" t="s">
+      <c r="O2" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="119" t="s">
+      <c r="P2" s="131" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="56" t="s">
         <v>373</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -4082,39 +4061,39 @@
       <c r="J3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="130"/>
+      <c r="N3" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="2:16" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="134" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>524</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="83"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>1</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4122,22 +4101,22 @@
       <c r="B5" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="80" t="s">
+      <c r="D5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="76" t="s">
         <v>630</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -4146,16 +4125,16 @@
       <c r="J5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <v>2</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4163,20 +4142,20 @@
       <c r="B6" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="121" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="76" t="s">
         <v>631</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -4185,16 +4164,16 @@
       <c r="J6" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>3</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="36" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4202,16 +4181,16 @@
       <c r="B7" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="76" t="s">
         <v>632</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -4220,16 +4199,16 @@
       <c r="J7" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>4</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="36" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4237,16 +4216,16 @@
       <c r="B8" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="29" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="76" t="s">
         <v>633</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -4255,16 +4234,16 @@
       <c r="J8" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <v>5</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="36" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4272,16 +4251,16 @@
       <c r="B9" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="29" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="76" t="s">
         <v>634</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -4290,16 +4269,16 @@
       <c r="J9" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="35">
         <v>6</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4307,16 +4286,16 @@
       <c r="B10" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="29" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="76" t="s">
         <v>635</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -4325,16 +4304,16 @@
       <c r="J10" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <v>7</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4342,16 +4321,16 @@
       <c r="B11" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="29" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="28" t="s">
         <v>517</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="76" t="s">
         <v>636</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -4360,16 +4339,16 @@
       <c r="J11" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>8.1</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4377,16 +4356,16 @@
       <c r="B12" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G12" s="80" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="76" t="s">
         <v>637</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -4395,16 +4374,16 @@
       <c r="J12" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>8.1</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="37" t="s">
+      <c r="O12" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P12" s="37" t="s">
+      <c r="P12" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4412,22 +4391,22 @@
       <c r="B13" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="93" t="s">
         <v>502</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="80" t="s">
+      <c r="D13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="76" t="s">
         <v>638</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -4436,16 +4415,16 @@
       <c r="J13" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <v>8.1</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="O13" s="37" t="s">
+      <c r="O13" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P13" s="37" t="s">
+      <c r="P13" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4453,38 +4432,38 @@
       <c r="B14" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="93" t="s">
         <v>501</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>465</v>
       </c>
-      <c r="E14" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G14" s="80" t="s">
+      <c r="E14" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G14" s="76" t="s">
         <v>639</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="35">
         <v>8.1</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4492,20 +4471,20 @@
       <c r="B15" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="D15" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="29" t="s">
+      <c r="D15" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="118"/>
+      <c r="F15" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="76" t="s">
         <v>640</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -4514,16 +4493,16 @@
       <c r="J15" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <v>8.1</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4531,16 +4510,16 @@
       <c r="B16" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="29" t="s">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="28" t="s">
         <v>502</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="76" t="s">
         <v>641</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -4549,16 +4528,16 @@
       <c r="J16" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="36" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4566,16 +4545,16 @@
       <c r="B17" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="29" t="s">
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="28" t="s">
         <v>508</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="76" t="s">
         <v>642</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -4584,16 +4563,16 @@
       <c r="J17" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="36" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4601,16 +4580,16 @@
       <c r="B18" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="80" t="s">
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="76" t="s">
         <v>643</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -4619,16 +4598,16 @@
       <c r="J18" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>9</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4636,22 +4615,22 @@
       <c r="B19" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="C19" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -4660,46 +4639,46 @@
       <c r="J19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="88">
+      <c r="M19" s="84">
         <v>10</v>
       </c>
-      <c r="N19" s="89" t="s">
+      <c r="N19" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="O19" s="89" t="s">
+      <c r="O19" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="P19" s="89" t="s">
+      <c r="P19" s="85" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="M20" s="88">
-        <v>11</v>
-      </c>
-      <c r="N20" s="89" t="s">
+      <c r="M20" s="84">
+        <v>11</v>
+      </c>
+      <c r="N20" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="O20" s="89" t="s">
+      <c r="O20" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="P20" s="89" t="s">
+      <c r="P20" s="85" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E6:E12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="E14:E18"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C5:C12"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="E6:E12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4713,7 +4692,7 @@
   <dimension ref="B1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C19"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4734,48 +4713,48 @@
   <sheetData>
     <row r="1" spans="2:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="N2" s="61" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="N2" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -4784,30 +4763,30 @@
       <c r="K3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="59">
         <v>0</v>
       </c>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="60" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.9" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="134" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="83"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="4"/>
       <c r="K4" s="21"/>
-      <c r="N4" s="63">
+      <c r="N4" s="59">
         <v>1</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="60" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4815,25 +4794,25 @@
       <c r="B5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="123" t="s">
+      <c r="C5" s="119" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="131" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="80" t="s">
+      <c r="F5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>644</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -4842,10 +4821,10 @@
       <c r="K5" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="59">
         <v>2</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="60" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4853,21 +4832,21 @@
       <c r="B6" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="130" t="s">
+      <c r="C6" s="123"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="130">
+      <c r="F6" s="123">
         <v>4</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="76" t="s">
         <v>645</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -4876,10 +4855,10 @@
       <c r="K6" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="59">
         <v>3</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="60" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4887,17 +4866,17 @@
       <c r="B7" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="123"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="76" t="s">
         <v>646</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -4906,10 +4885,10 @@
       <c r="K7" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="59">
         <v>9</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="60" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4917,19 +4896,19 @@
       <c r="B8" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="123"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8" s="76" t="s">
         <v>647</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -4943,21 +4922,21 @@
       <c r="B9" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="130"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="130" t="s">
+      <c r="C9" s="123"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="123" t="s">
         <v>273</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="76" t="s">
         <v>648</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -4971,19 +4950,19 @@
       <c r="B10" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="130"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="38" t="s">
+      <c r="C10" s="123"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="76" t="s">
         <v>649</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -4997,17 +4976,17 @@
       <c r="B11" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="38" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="76" t="s">
         <v>650</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -5021,21 +5000,21 @@
       <c r="B12" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="119"/>
       <c r="E12" s="17" t="s">
         <v>276</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="76" t="s">
         <v>651</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -5049,10 +5028,10 @@
       <c r="B13" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="93" t="s">
         <v>502</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>203</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -5061,13 +5040,13 @@
       <c r="F13" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H13" s="80" t="s">
+      <c r="G13" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="76" t="s">
         <v>652</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J13" s="8" t="s">
@@ -5081,13 +5060,13 @@
       <c r="B14" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="93" t="s">
         <v>501</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>0</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="37" t="s">
         <v>484</v>
       </c>
       <c r="F14" s="17" t="s">
@@ -5096,10 +5075,10 @@
       <c r="G14" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="76" t="s">
         <v>653</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J14" s="8" t="s">
@@ -5113,13 +5092,13 @@
       <c r="B15" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="D15" s="117" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>271</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -5128,10 +5107,10 @@
       <c r="G15" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="76" t="s">
         <v>654</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J15" s="8" t="s">
@@ -5145,9 +5124,9 @@
       <c r="B16" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="38" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="37" t="s">
         <v>485</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -5156,10 +5135,10 @@
       <c r="G16" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H16" s="80" t="s">
+      <c r="H16" s="76" t="s">
         <v>655</v>
       </c>
-      <c r="I16" s="40" t="s">
+      <c r="I16" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J16" s="8" t="s">
@@ -5173,13 +5152,13 @@
       <c r="B17" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="93" t="s">
         <v>501</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>276</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -5188,10 +5167,10 @@
       <c r="G17" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="76" t="s">
         <v>656</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J17" s="8" t="s">
@@ -5205,10 +5184,10 @@
       <c r="B18" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="93" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="37" t="s">
         <v>203</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -5217,13 +5196,13 @@
       <c r="F18" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="80" t="s">
+      <c r="G18" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="76" t="s">
         <v>657</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="8" t="s">
@@ -5237,10 +5216,10 @@
       <c r="B19" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="38" t="s">
+      <c r="C19" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>203</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -5249,13 +5228,13 @@
       <c r="F19" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="8" t="s">
@@ -5288,7 +5267,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5302,34 +5281,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="56" t="s">
         <v>351</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -5340,16 +5319,16 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="4"/>
       <c r="I4" s="21"/>
     </row>
@@ -5357,19 +5336,19 @@
       <c r="B5" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="80" t="s">
+      <c r="E5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="76" t="s">
         <v>658</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
@@ -5383,19 +5362,19 @@
       <c r="B6" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="76" t="s">
         <v>659</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -5409,19 +5388,19 @@
       <c r="B7" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="76" t="s">
         <v>660</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -5435,19 +5414,19 @@
       <c r="B8" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="80" t="s">
+      <c r="C8" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>661</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -5473,7 +5452,7 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5488,38 +5467,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -5530,17 +5509,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
+      <c r="B4" s="116"/>
       <c r="C4" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>489</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="83"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
     </row>
@@ -5548,16 +5527,20 @@
       <c r="B5" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="80" t="s">
+      <c r="C5" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="76" t="s">
         <v>662</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -5571,7 +5554,7 @@
       <c r="B6" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -5580,13 +5563,13 @@
       <c r="E6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="80" t="s">
+      <c r="F6" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="76" t="s">
         <v>663</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -5600,20 +5583,20 @@
       <c r="B7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>478</v>
       </c>
-      <c r="F7" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G7" s="80" t="s">
+      <c r="F7" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="76" t="s">
         <v>664</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -5627,18 +5610,18 @@
       <c r="B8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="38" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="F8" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="76" t="s">
         <v>665</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -5652,18 +5635,18 @@
       <c r="B9" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="121" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="117" t="s">
         <v>480</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="76" t="s">
         <v>666</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -5677,16 +5660,16 @@
       <c r="B10" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="29" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="76" t="s">
         <v>667</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -5700,22 +5683,22 @@
       <c r="B11" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="80" t="s">
+      <c r="C11" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="76" t="s">
         <v>668</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -5744,7 +5727,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C17"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5757,22 +5740,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5783,8 +5766,8 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="137"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="F4" s="21"/>
@@ -5793,7 +5776,7 @@
       <c r="B5" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="92" t="s">
         <v>203</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -5807,29 +5790,29 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -5840,8 +5823,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="114"/>
-      <c r="C10" s="137"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="134"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
       <c r="F10" s="21"/>
@@ -5850,7 +5833,7 @@
       <c r="B11" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="92" t="s">
         <v>203</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -5864,22 +5847,22 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="136" t="s">
+      <c r="C15" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5890,8 +5873,8 @@
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="114"/>
-      <c r="C16" s="137"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="134"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
       <c r="F16" s="21"/>
@@ -5900,7 +5883,7 @@
       <c r="B17" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="92" t="s">
         <v>203</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -5943,26 +5926,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="64" t="s">
         <v>394</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -5976,16 +5959,16 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="B4" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>203</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -5999,16 +5982,16 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="90" t="s">
+      <c r="B5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="86" t="s">
         <v>518</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -6022,16 +6005,16 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="41" t="s">
+      <c r="B6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -6045,16 +6028,16 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -6068,16 +6051,16 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="10" t="s">
@@ -6091,16 +6074,16 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -6114,16 +6097,16 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -6137,16 +6120,16 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -6160,16 +6143,16 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -6183,16 +6166,16 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -6206,16 +6189,16 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -6229,16 +6212,16 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="38" t="s">
+      <c r="B15" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -6252,16 +6235,16 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="37" t="s">
         <v>203</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D16" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="D16" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -6275,16 +6258,16 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40" t="s">
         <v>408</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -6324,24 +6307,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
     </row>
     <row r="3" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="83" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6349,10 +6332,10 @@
       <c r="B4" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="85" t="s">
+      <c r="C4" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="81" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -6374,13 +6357,13 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="30.734375" customWidth="1"/>
-    <col min="3" max="3" width="21.7890625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7890625" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.89453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.734375" customWidth="1"/>
     <col min="6" max="6" width="24.5234375" bestFit="1" customWidth="1"/>
@@ -6388,26 +6371,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>398</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -6418,9 +6401,9 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
       <c r="G4" s="21"/>
@@ -6429,13 +6412,13 @@
       <c r="B5" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="133" t="s">
+      <c r="C5" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="56" t="s">
+      <c r="D5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="53" t="s">
         <v>501</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -6449,10 +6432,10 @@
       <c r="B6" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="93" t="s">
         <v>409</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>490</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -6469,10 +6452,10 @@
       <c r="B7" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="93" t="s">
         <v>410</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>203</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -6489,10 +6472,10 @@
       <c r="B8" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="93" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>203</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -6509,10 +6492,10 @@
       <c r="B9" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>203</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -6543,7 +6526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C64"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6566,62 +6549,62 @@
   <sheetData>
     <row r="1" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="P2" s="117" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="P2" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="R2" s="119" t="s">
+      <c r="R2" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="S2" s="119" t="s">
+      <c r="S2" s="131" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="72" t="s">
+      <c r="K3" s="68" t="s">
         <v>394</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -6630,48 +6613,48 @@
       <c r="M3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="130"/>
+      <c r="Q3" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
     </row>
     <row r="4" spans="2:19" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="134" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>524</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="73"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="69"/>
       <c r="L4" s="4"/>
       <c r="M4" s="21"/>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>1</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="R4" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="36" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6679,31 +6662,31 @@
       <c r="B5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="93" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="57" t="s">
+      <c r="D5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -6712,16 +6695,16 @@
       <c r="M5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>2</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="36" t="s">
         <v>214</v>
       </c>
     </row>
@@ -6729,31 +6712,31 @@
       <c r="B6" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="117" t="s">
         <v>502</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="117" t="s">
         <v>525</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="117" t="s">
         <v>507</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="H6" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="J6" s="45" t="s">
+      <c r="H6" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="43" t="s">
         <v>530</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -6762,16 +6745,16 @@
       <c r="M6" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>3</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S6" s="37" t="s">
+      <c r="S6" s="36" t="s">
         <v>215</v>
       </c>
     </row>
@@ -6779,19 +6762,19 @@
       <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="45" t="s">
+      <c r="H7" s="118"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="43" t="s">
         <v>531</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -6800,16 +6783,16 @@
       <c r="M7" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>4</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="S7" s="37" t="s">
+      <c r="S7" s="36" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6817,21 +6800,21 @@
       <c r="B8" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="45" t="s">
+      <c r="H8" s="118"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="43" t="s">
         <v>532</v>
       </c>
-      <c r="K8" s="74" t="s">
+      <c r="K8" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -6840,16 +6823,16 @@
       <c r="M8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="35">
         <v>5</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="S8" s="36" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6857,19 +6840,19 @@
       <c r="B9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="29" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="45" t="s">
+      <c r="H9" s="119"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -6878,16 +6861,16 @@
       <c r="M9" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="35">
         <v>6</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S9" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -6895,27 +6878,27 @@
       <c r="B10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="121" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="117" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="G10" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="121" t="s">
+      <c r="G10" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H10" s="117" t="s">
         <v>413</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -6924,16 +6907,16 @@
       <c r="M10" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="35">
         <v>7</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6941,19 +6924,19 @@
       <c r="B11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="29" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -6962,16 +6945,16 @@
       <c r="M11" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>8.1</v>
       </c>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R11" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="S11" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6979,19 +6962,19 @@
       <c r="B12" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="29" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="K12" s="74" t="s">
+      <c r="K12" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -7000,16 +6983,16 @@
       <c r="M12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="35">
         <v>8.1</v>
       </c>
-      <c r="Q12" s="37" t="s">
+      <c r="Q12" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="R12" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S12" s="37" t="s">
+      <c r="S12" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7017,23 +7000,23 @@
       <c r="B13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="I13" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="45" t="s">
+      <c r="I13" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="K13" s="74" t="s">
+      <c r="K13" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="8" t="s">
@@ -7042,16 +7025,16 @@
       <c r="M13" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>8.1</v>
       </c>
-      <c r="Q13" s="37" t="s">
+      <c r="Q13" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S13" s="37" t="s">
+      <c r="S13" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7059,19 +7042,19 @@
       <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="123"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="45" t="s">
+      <c r="H14" s="119"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="43" t="s">
         <v>538</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -7080,16 +7063,16 @@
       <c r="M14" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <v>8.1</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="R14" s="37" t="s">
+      <c r="R14" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S14" s="37" t="s">
+      <c r="S14" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7097,23 +7080,23 @@
       <c r="B15" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="117" t="s">
         <v>415</v>
       </c>
-      <c r="I15" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="J15" s="45" t="s">
+      <c r="I15" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="8" t="s">
@@ -7122,16 +7105,16 @@
       <c r="M15" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="35">
         <v>8.1</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="R15" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S15" s="37" t="s">
+      <c r="S15" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7139,19 +7122,19 @@
       <c r="B16" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="123"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="45" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="8" t="s">
@@ -7160,16 +7143,16 @@
       <c r="M16" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="R16" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S16" s="37" t="s">
+      <c r="S16" s="36" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7177,25 +7160,25 @@
       <c r="B17" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="122"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="121" t="s">
+      <c r="C17" s="118"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="117" t="s">
         <v>502</v>
       </c>
-      <c r="G17" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H17" s="122" t="s">
+      <c r="G17" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="118" t="s">
         <v>416</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="43" t="s">
         <v>541</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="8" t="s">
@@ -7204,16 +7187,16 @@
       <c r="M17" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S17" s="37" t="s">
+      <c r="S17" s="36" t="s">
         <v>223</v>
       </c>
     </row>
@@ -7221,19 +7204,19 @@
       <c r="B18" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="122"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="29" t="s">
+      <c r="C18" s="118"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="43" t="s">
         <v>542</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="8" t="s">
@@ -7242,16 +7225,16 @@
       <c r="M18" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>9</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S18" s="37" t="s">
+      <c r="S18" s="36" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7259,21 +7242,21 @@
       <c r="B19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="121" t="s">
+      <c r="C19" s="118"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="43" t="s">
         <v>543</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="8" t="s">
@@ -7282,16 +7265,16 @@
       <c r="M19" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P19" s="88">
+      <c r="P19" s="84">
         <v>10</v>
       </c>
-      <c r="Q19" s="89" t="s">
+      <c r="Q19" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="R19" s="89" t="s">
+      <c r="R19" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="S19" s="89" t="s">
+      <c r="S19" s="85" t="s">
         <v>220</v>
       </c>
     </row>
@@ -7299,19 +7282,19 @@
       <c r="B20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="29" t="s">
+      <c r="C20" s="118"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="43" t="s">
         <v>544</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="K20" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="8" t="s">
@@ -7320,16 +7303,16 @@
       <c r="M20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P20" s="88">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="89" t="s">
+      <c r="P20" s="84">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="R20" s="89" t="s">
+      <c r="R20" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="S20" s="89" t="s">
+      <c r="S20" s="85" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7337,19 +7320,19 @@
       <c r="B21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="29" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="43" t="s">
         <v>545</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="8" t="s">
@@ -7358,16 +7341,16 @@
       <c r="M21" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="35">
         <v>12</v>
       </c>
-      <c r="Q21" s="37" t="s">
+      <c r="Q21" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S21" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7375,21 +7358,21 @@
       <c r="B22" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="29" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="I22" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J22" s="45" t="s">
+      <c r="I22" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" s="43" t="s">
         <v>546</v>
       </c>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="8" t="s">
@@ -7398,16 +7381,16 @@
       <c r="M22" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="35">
         <v>13</v>
       </c>
-      <c r="Q22" s="37" t="s">
+      <c r="Q22" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S22" s="37" t="s">
+      <c r="S22" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7415,19 +7398,19 @@
       <c r="B23" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="29" t="s">
+      <c r="C23" s="118"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="I23" s="126"/>
-      <c r="J23" s="45" t="s">
+      <c r="I23" s="122"/>
+      <c r="J23" s="43" t="s">
         <v>547</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="8" t="s">
@@ -7436,16 +7419,16 @@
       <c r="M23" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>14</v>
       </c>
-      <c r="Q23" s="37" t="s">
+      <c r="Q23" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="S23" s="36" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7453,25 +7436,25 @@
       <c r="B24" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="121" t="s">
+      <c r="C24" s="118"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="117" t="s">
         <v>508</v>
       </c>
-      <c r="G24" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H24" s="29" t="s">
+      <c r="G24" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="I24" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="45" t="s">
+      <c r="I24" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" s="43" t="s">
         <v>548</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="8" t="s">
@@ -7480,16 +7463,16 @@
       <c r="M24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="35">
         <v>15</v>
       </c>
-      <c r="Q24" s="37" t="s">
+      <c r="Q24" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="R24" s="37" t="s">
+      <c r="R24" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S24" s="37" t="s">
+      <c r="S24" s="36" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7497,19 +7480,19 @@
       <c r="B25" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="122"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="29" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="I25" s="125"/>
-      <c r="J25" s="45" t="s">
+      <c r="I25" s="121"/>
+      <c r="J25" s="43" t="s">
         <v>549</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="8" t="s">
@@ -7518,16 +7501,16 @@
       <c r="M25" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>16</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R25" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="S25" s="37" t="s">
+      <c r="S25" s="36" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7535,19 +7518,19 @@
       <c r="B26" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="122"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="29" t="s">
+      <c r="C26" s="118"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="I26" s="126"/>
-      <c r="J26" s="45" t="s">
+      <c r="I26" s="122"/>
+      <c r="J26" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="8" t="s">
@@ -7561,25 +7544,25 @@
       <c r="B27" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="122"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="121" t="s">
+      <c r="C27" s="118"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="117" t="s">
         <v>509</v>
       </c>
-      <c r="G27" s="121" t="s">
+      <c r="G27" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="28" t="s">
         <v>423</v>
       </c>
-      <c r="I27" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J27" s="45" t="s">
+      <c r="I27" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" s="43" t="s">
         <v>551</v>
       </c>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -7593,19 +7576,19 @@
       <c r="B28" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="29" t="s">
+      <c r="C28" s="118"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="I28" s="126"/>
-      <c r="J28" s="45" t="s">
+      <c r="I28" s="122"/>
+      <c r="J28" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -7619,23 +7602,23 @@
       <c r="B29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="121" t="s">
+      <c r="C29" s="118"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="I29" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J29" s="45" t="s">
+      <c r="I29" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J29" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -7649,19 +7632,19 @@
       <c r="B30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="122"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="29" t="s">
+      <c r="C30" s="118"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="I30" s="126"/>
-      <c r="J30" s="45" t="s">
+      <c r="I30" s="122"/>
+      <c r="J30" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="K30" s="74" t="s">
+      <c r="K30" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -7675,25 +7658,25 @@
       <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="121" t="s">
+      <c r="C31" s="118"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="117" t="s">
         <v>510</v>
       </c>
-      <c r="G31" s="121" t="s">
+      <c r="G31" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="I31" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J31" s="45" t="s">
+      <c r="I31" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J31" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="K31" s="74" t="s">
+      <c r="K31" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="8" t="s">
@@ -7707,19 +7690,19 @@
       <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="29" t="s">
+      <c r="C32" s="118"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="28" t="s">
         <v>522</v>
       </c>
-      <c r="I32" s="125"/>
-      <c r="J32" s="45" t="s">
+      <c r="I32" s="121"/>
+      <c r="J32" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="K32" s="74" t="s">
+      <c r="K32" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="8" t="s">
@@ -7733,19 +7716,19 @@
       <c r="B33" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="122"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="122"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="29" t="s">
+      <c r="C33" s="118"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="I33" s="126"/>
-      <c r="J33" s="45" t="s">
+      <c r="I33" s="122"/>
+      <c r="J33" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="K33" s="74" t="s">
+      <c r="K33" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="8" t="s">
@@ -7759,11 +7742,11 @@
       <c r="B34" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="122"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="29" t="s">
+      <c r="C34" s="118"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="28" t="s">
         <v>254</v>
       </c>
       <c r="H34" s="17" t="s">
@@ -7772,10 +7755,10 @@
       <c r="I34" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="K34" s="74" t="s">
+      <c r="K34" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L34" s="8" t="s">
@@ -7789,25 +7772,25 @@
       <c r="B35" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="121" t="s">
+      <c r="C35" s="118"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="117" t="s">
         <v>511</v>
       </c>
-      <c r="G35" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H35" s="121" t="s">
+      <c r="G35" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" s="117" t="s">
         <v>436</v>
       </c>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="K35" s="74" t="s">
+      <c r="K35" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L35" s="8" t="s">
@@ -7821,19 +7804,19 @@
       <c r="B36" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="122"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="29" t="s">
+      <c r="C36" s="118"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="118"/>
+      <c r="G36" s="118"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="43" t="s">
         <v>560</v>
       </c>
-      <c r="K36" s="74" t="s">
+      <c r="K36" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="8" t="s">
@@ -7847,21 +7830,21 @@
       <c r="B37" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="122"/>
-      <c r="G37" s="122"/>
-      <c r="H37" s="29" t="s">
+      <c r="C37" s="118"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="I37" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J37" s="45" t="s">
+      <c r="I37" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" s="43" t="s">
         <v>561</v>
       </c>
-      <c r="K37" s="74" t="s">
+      <c r="K37" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -7875,19 +7858,19 @@
       <c r="B38" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="122"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="29" t="s">
+      <c r="C38" s="118"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="I38" s="126"/>
-      <c r="J38" s="45" t="s">
+      <c r="I38" s="122"/>
+      <c r="J38" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="K38" s="74" t="s">
+      <c r="K38" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -7901,25 +7884,25 @@
       <c r="B39" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="121" t="s">
+      <c r="C39" s="118"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="G39" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="29" t="s">
+      <c r="G39" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>432</v>
       </c>
-      <c r="I39" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J39" s="45" t="s">
+      <c r="I39" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J39" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="K39" s="74" t="s">
+      <c r="K39" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L39" s="8" t="s">
@@ -7933,19 +7916,19 @@
       <c r="B40" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="122"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="29" t="s">
+      <c r="C40" s="118"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="I40" s="125"/>
-      <c r="J40" s="45" t="s">
+      <c r="I40" s="121"/>
+      <c r="J40" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="K40" s="74" t="s">
+      <c r="K40" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -7959,19 +7942,19 @@
       <c r="B41" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="122"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="29" t="s">
+      <c r="C41" s="118"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="I41" s="126"/>
-      <c r="J41" s="45" t="s">
+      <c r="I41" s="122"/>
+      <c r="J41" s="43" t="s">
         <v>565</v>
       </c>
-      <c r="K41" s="74" t="s">
+      <c r="K41" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L41" s="8" t="s">
@@ -7985,25 +7968,25 @@
       <c r="B42" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="122"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="121" t="s">
+      <c r="C42" s="118"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="117" t="s">
         <v>512</v>
       </c>
-      <c r="G42" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="29" t="s">
+      <c r="G42" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="I42" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="45" t="s">
+      <c r="I42" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J42" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="K42" s="74" t="s">
+      <c r="K42" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="8" t="s">
@@ -8017,19 +8000,19 @@
       <c r="B43" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="122"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="122"/>
-      <c r="H43" s="29" t="s">
+      <c r="C43" s="118"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="I43" s="125"/>
-      <c r="J43" s="45" t="s">
+      <c r="I43" s="121"/>
+      <c r="J43" s="43" t="s">
         <v>567</v>
       </c>
-      <c r="K43" s="74" t="s">
+      <c r="K43" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L43" s="8" t="s">
@@ -8043,19 +8026,19 @@
       <c r="B44" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
-      <c r="G44" s="122"/>
-      <c r="H44" s="29" t="s">
+      <c r="C44" s="118"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="118"/>
+      <c r="H44" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="I44" s="125"/>
-      <c r="J44" s="45" t="s">
+      <c r="I44" s="121"/>
+      <c r="J44" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="K44" s="74" t="s">
+      <c r="K44" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -8069,19 +8052,19 @@
       <c r="B45" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="29" t="s">
+      <c r="C45" s="118"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="28" t="s">
         <v>431</v>
       </c>
-      <c r="I45" s="126"/>
-      <c r="J45" s="45" t="s">
+      <c r="I45" s="122"/>
+      <c r="J45" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="K45" s="74" t="s">
+      <c r="K45" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L45" s="8" t="s">
@@ -8095,10 +8078,10 @@
       <c r="B46" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="122"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="29" t="s">
+      <c r="C46" s="118"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="28" t="s">
         <v>513</v>
       </c>
       <c r="G46" s="17" t="s">
@@ -8110,10 +8093,10 @@
       <c r="I46" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="K46" s="74" t="s">
+      <c r="K46" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="8" t="s">
@@ -8127,23 +8110,25 @@
       <c r="B47" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="122"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="121" t="s">
+      <c r="C47" s="118"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="117" t="s">
         <v>514</v>
       </c>
-      <c r="G47" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H47" s="29" t="s">
+      <c r="G47" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="45" t="s">
+      <c r="I47" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="K47" s="74" t="s">
+      <c r="K47" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -8157,21 +8142,21 @@
       <c r="B48" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="122"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="121" t="s">
+      <c r="C48" s="118"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="I48" s="29" t="s">
+      <c r="I48" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="K48" s="74" t="s">
+      <c r="K48" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -8185,19 +8170,19 @@
       <c r="B49" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="122"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="29" t="s">
+      <c r="C49" s="118"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
+      <c r="G49" s="118"/>
+      <c r="H49" s="119"/>
+      <c r="I49" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="K49" s="74" t="s">
+      <c r="K49" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L49" s="8" t="s">
@@ -8211,21 +8196,21 @@
       <c r="B50" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="122"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="121" t="s">
+      <c r="C50" s="118"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="117" t="s">
         <v>448</v>
       </c>
-      <c r="I50" s="29" t="s">
+      <c r="I50" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J50" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="K50" s="74" t="s">
+      <c r="K50" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L50" s="8" t="s">
@@ -8239,19 +8224,19 @@
       <c r="B51" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="122"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="29" t="s">
+      <c r="C51" s="118"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="118"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="K51" s="74" t="s">
+      <c r="K51" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L51" s="8" t="s">
@@ -8265,21 +8250,21 @@
       <c r="B52" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="122"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="29" t="s">
+      <c r="C52" s="118"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="28" t="s">
         <v>431</v>
       </c>
       <c r="I52" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="K52" s="74" t="s">
+      <c r="K52" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L52" s="8" t="s">
@@ -8293,23 +8278,25 @@
       <c r="B53" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C53" s="122"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="G53" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="H53" s="29" t="s">
+      <c r="C53" s="118"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="I53" s="125"/>
-      <c r="J53" s="45" t="s">
+      <c r="I53" s="121" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="K53" s="74" t="s">
+      <c r="K53" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L53" s="8" t="s">
@@ -8323,19 +8310,19 @@
       <c r="B54" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C54" s="122"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="29" t="s">
+      <c r="C54" s="118"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="28" t="s">
         <v>450</v>
       </c>
-      <c r="I54" s="125"/>
-      <c r="J54" s="45" t="s">
+      <c r="I54" s="121"/>
+      <c r="J54" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="K54" s="74" t="s">
+      <c r="K54" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L54" s="8" t="s">
@@ -8349,19 +8336,19 @@
       <c r="B55" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="29" t="s">
+      <c r="C55" s="119"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="I55" s="126"/>
-      <c r="J55" s="45" t="s">
+      <c r="I55" s="122"/>
+      <c r="J55" s="43" t="s">
         <v>578</v>
       </c>
-      <c r="K55" s="74" t="s">
+      <c r="K55" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -8375,7 +8362,7 @@
       <c r="B56" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C56" s="94" t="s">
+      <c r="C56" s="90" t="s">
         <v>502</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -8393,13 +8380,13 @@
       <c r="H56" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="I56" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="J56" s="45" t="s">
+      <c r="I56" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="43" t="s">
         <v>579</v>
       </c>
-      <c r="K56" s="74" t="s">
+      <c r="K56" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L56" s="8" t="s">
@@ -8413,10 +8400,10 @@
       <c r="B57" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="121" t="s">
+      <c r="C57" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="D57" s="29" t="s">
+      <c r="D57" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E57" s="17" t="s">
@@ -8434,10 +8421,10 @@
       <c r="I57" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J57" s="57" t="s">
+      <c r="J57" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="K57" s="74" t="s">
+      <c r="K57" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="5" t="s">
@@ -8451,29 +8438,29 @@
       <c r="B58" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="122"/>
-      <c r="D58" s="121" t="s">
+      <c r="C58" s="118"/>
+      <c r="D58" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="121" t="s">
+      <c r="E58" s="117" t="s">
         <v>203</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G58" s="29" t="s">
+      <c r="G58" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="H58" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="I58" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="J58" s="45" t="s">
+      <c r="H58" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="I58" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="J58" s="43" t="s">
         <v>581</v>
       </c>
-      <c r="K58" s="74" t="s">
+      <c r="K58" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L58" s="8" t="s">
@@ -8487,21 +8474,21 @@
       <c r="B59" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="84" t="s">
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="G59" s="29" t="s">
+      <c r="G59" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="H59" s="122"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="45" t="s">
+      <c r="H59" s="118"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="K59" s="74" t="s">
+      <c r="K59" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="8" t="s">
@@ -8515,21 +8502,21 @@
       <c r="B60" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="84" t="s">
+      <c r="C60" s="118"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="118"/>
+      <c r="F60" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="G60" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H60" s="122"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="45" t="s">
+      <c r="G60" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H60" s="118"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="K60" s="74" t="s">
+      <c r="K60" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="8" t="s">
@@ -8543,19 +8530,19 @@
       <c r="B61" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="84" t="s">
+      <c r="C61" s="118"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="45" t="s">
+      <c r="G61" s="118"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="K61" s="74" t="s">
+      <c r="K61" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="8" t="s">
@@ -8569,19 +8556,19 @@
       <c r="B62" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="119"/>
       <c r="F62" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G62" s="123"/>
-      <c r="H62" s="123"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="45" t="s">
+      <c r="G62" s="119"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="K62" s="74" t="s">
+      <c r="K62" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L62" s="8" t="s">
@@ -8595,7 +8582,7 @@
       <c r="B63" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C63" s="94" t="s">
+      <c r="C63" s="90" t="s">
         <v>501</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -8616,10 +8603,10 @@
       <c r="I63" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="K63" s="74" t="s">
+      <c r="K63" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L63" s="8" t="s">
@@ -8633,7 +8620,7 @@
       <c r="B64" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="97" t="s">
+      <c r="C64" s="93" t="s">
         <v>203</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -8657,7 +8644,7 @@
       <c r="J64" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="K64" s="74" t="s">
+      <c r="K64" s="70" t="s">
         <v>11</v>
       </c>
       <c r="L64" s="8" t="s">
@@ -8669,6 +8656,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G17:G23"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="G60:G62"/>
     <mergeCell ref="C6:C55"/>
     <mergeCell ref="F42:F45"/>
     <mergeCell ref="G42:G45"/>
@@ -8685,49 +8715,6 @@
     <mergeCell ref="F10:F16"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="H10:H12"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G17:G23"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8741,7 +8728,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8758,46 +8745,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -8808,23 +8795,23 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="134" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="99" t="s">
         <v>490</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="83"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="4"/>
       <c r="L4" s="21"/>
     </row>
@@ -8832,28 +8819,28 @@
       <c r="B5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="79" t="s">
+      <c r="D5" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>587</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -8867,24 +8854,26 @@
       <c r="B6" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="121" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="117" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="I6" s="80" t="s">
+      <c r="H6" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -8898,18 +8887,22 @@
       <c r="B7" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="29" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="80" t="s">
+      <c r="H7" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="76" t="s">
         <v>589</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -8923,18 +8916,22 @@
       <c r="B8" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="29" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="80" t="s">
+      <c r="H8" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -8948,24 +8945,24 @@
       <c r="B9" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="121" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="117" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="H9" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="80" t="s">
+      <c r="H9" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="76" t="s">
         <v>591</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -8979,18 +8976,18 @@
       <c r="B10" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="80" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="76" t="s">
         <v>592</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="8" t="s">
@@ -9004,20 +9001,20 @@
       <c r="B11" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="121" t="s">
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="80" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="8" t="s">
@@ -9031,18 +9028,18 @@
       <c r="B12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="29" t="s">
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="80" t="s">
+      <c r="H12" s="122"/>
+      <c r="I12" s="76" t="s">
         <v>594</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -9056,22 +9053,22 @@
       <c r="B13" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="121" t="s">
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="117" t="s">
         <v>273</v>
       </c>
-      <c r="F13" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="F13" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="80" t="s">
+      <c r="H13" s="28"/>
+      <c r="I13" s="76" t="s">
         <v>595</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="8" t="s">
@@ -9085,20 +9082,20 @@
       <c r="B14" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="121" t="s">
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="117" t="s">
         <v>459</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="76" t="s">
         <v>596</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K14" s="8" t="s">
@@ -9112,18 +9109,18 @@
       <c r="B15" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="29" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="28" t="s">
         <v>460</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="76" t="s">
         <v>597</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K15" s="8" t="s">
@@ -9137,18 +9134,18 @@
       <c r="B16" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="29" t="s">
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="76" t="s">
         <v>598</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="8" t="s">
@@ -9162,9 +9159,9 @@
       <c r="B17" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="29" t="s">
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="28" t="s">
         <v>276</v>
       </c>
       <c r="F17" s="17" t="s">
@@ -9173,13 +9170,13 @@
       <c r="G17" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I17" s="80" t="s">
+      <c r="H17" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I17" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K17" s="8" t="s">
@@ -9193,7 +9190,7 @@
       <c r="B18" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="90" t="s">
         <v>502</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -9208,13 +9205,13 @@
       <c r="G18" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" s="80" t="s">
+      <c r="H18" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I18" s="76" t="s">
         <v>600</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="8" t="s">
@@ -9228,13 +9225,13 @@
       <c r="B19" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="27" t="s">
         <v>203</v>
       </c>
       <c r="F19" s="17" t="s">
@@ -9243,13 +9240,13 @@
       <c r="G19" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I19" s="81" t="s">
+      <c r="H19" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I19" s="77" t="s">
         <v>601</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -9263,26 +9260,26 @@
       <c r="B20" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="122"/>
-      <c r="D20" s="121" t="s">
+      <c r="C20" s="118"/>
+      <c r="D20" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="F20" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="F20" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="I20" s="80" t="s">
+      <c r="I20" s="76" t="s">
         <v>602</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="8" t="s">
@@ -9296,20 +9293,20 @@
       <c r="B21" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="29" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="124" t="s">
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I21" s="76" t="s">
         <v>603</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K21" s="8" t="s">
@@ -9323,18 +9320,18 @@
       <c r="B22" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="38" t="s">
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="80" t="s">
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="76" t="s">
         <v>604</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="8" t="s">
@@ -9348,20 +9345,20 @@
       <c r="B23" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="29" t="s">
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="44" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="80" t="s">
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="I23" s="76" t="s">
         <v>605</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -9375,7 +9372,7 @@
       <c r="B24" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="93" t="s">
         <v>501</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -9390,13 +9387,13 @@
       <c r="G24" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="80" t="s">
+      <c r="H24" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="76" t="s">
         <v>606</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="8" t="s">
@@ -9410,7 +9407,7 @@
       <c r="B25" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="93" t="s">
         <v>203</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -9425,13 +9422,13 @@
       <c r="G25" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="28" t="s">
         <v>203</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="39" t="s">
         <v>11</v>
       </c>
       <c r="K25" s="8" t="s">
@@ -9443,6 +9440,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D6:D17"/>
+    <mergeCell ref="C5:C17"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D20:D23"/>
@@ -9453,13 +9457,6 @@
     <mergeCell ref="F13:F16"/>
     <mergeCell ref="G14:G16"/>
     <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D17"/>
-    <mergeCell ref="C5:C17"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9472,7 +9469,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C12"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9486,34 +9483,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -9524,18 +9521,18 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="49" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="4"/>
       <c r="I4" s="21"/>
     </row>
@@ -9543,19 +9540,19 @@
       <c r="B5" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="79" t="s">
+      <c r="C5" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="75" t="s">
         <v>607</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -9569,19 +9566,19 @@
       <c r="B6" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="117" t="s">
         <v>461</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="80" t="s">
+      <c r="E6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>608</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="8" t="s">
@@ -9595,15 +9592,15 @@
       <c r="B7" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="76" t="s">
         <v>609</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="8" t="s">
@@ -9617,17 +9614,17 @@
       <c r="B8" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="121" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="117" t="s">
         <v>462</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="80" t="s">
+      <c r="E8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>610</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -9641,15 +9638,15 @@
       <c r="B9" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="76" t="s">
         <v>611</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -9663,17 +9660,17 @@
       <c r="B10" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="121" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="117" t="s">
         <v>521</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="80" t="s">
+      <c r="E10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>612</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -9687,15 +9684,15 @@
       <c r="B11" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="29" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="76" t="s">
         <v>613</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="8" t="s">
@@ -9709,19 +9706,19 @@
       <c r="B12" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C12" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="80" t="s">
+      <c r="C12" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="76" t="s">
         <v>614</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="8" t="s">
@@ -9752,7 +9749,7 @@
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C12"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9766,42 +9763,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -9812,20 +9809,20 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="51" t="s">
         <v>489</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="83"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="4"/>
       <c r="K4" s="21"/>
     </row>
@@ -9833,25 +9830,25 @@
       <c r="B5" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="C5" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="77" t="s">
         <v>615</v>
       </c>
-      <c r="I5" s="40" t="s">
+      <c r="I5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="5" t="s">
@@ -9865,25 +9862,25 @@
       <c r="B6" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="37" t="s">
         <v>463</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G6" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="80" t="s">
+      <c r="G6" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="76" t="s">
         <v>616</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="8" t="s">
@@ -9897,19 +9894,19 @@
       <c r="B7" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="121" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="117" t="s">
         <v>464</v>
       </c>
       <c r="F7" s="17">
         <v>4</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="121"/>
+      <c r="H7" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="8" t="s">
@@ -9923,17 +9920,17 @@
       <c r="B8" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="38" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="126"/>
-      <c r="H8" s="80" t="s">
+      <c r="G8" s="122"/>
+      <c r="H8" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -9947,21 +9944,21 @@
       <c r="B9" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="121">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="117">
         <v>0</v>
       </c>
-      <c r="F9" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="29" t="s">
+      <c r="F9" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="76" t="s">
         <v>619</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="8" t="s">
@@ -9975,17 +9972,17 @@
       <c r="B10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="29" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="I10" s="40" t="s">
+      <c r="I10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -9999,7 +9996,7 @@
       <c r="B11" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="123"/>
+      <c r="C11" s="119"/>
       <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
@@ -10009,13 +10006,13 @@
       <c r="F11" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="80" t="s">
+      <c r="G11" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="76" t="s">
         <v>621</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="8" t="s">
@@ -10029,7 +10026,7 @@
       <c r="B12" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="93" t="s">
         <v>203</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -10041,13 +10038,13 @@
       <c r="F12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="80" t="s">
+      <c r="G12" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="76" t="s">
         <v>622</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="39" t="s">
         <v>11</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -10079,15 +10076,15 @@
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="31.26171875" customWidth="1"/>
-    <col min="3" max="4" width="22.734375" style="42" customWidth="1"/>
-    <col min="5" max="5" width="17.1015625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="17.3671875" style="42" customWidth="1"/>
+    <col min="3" max="4" width="22.734375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="17.1015625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="17.3671875" style="41" customWidth="1"/>
     <col min="7" max="7" width="17.15625" customWidth="1"/>
     <col min="8" max="8" width="8.7890625" customWidth="1"/>
     <col min="9" max="9" width="39.5234375" customWidth="1"/>
@@ -10095,38 +10092,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="78" t="s">
         <v>394</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -10137,17 +10134,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="114"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="23"/>
-      <c r="H4" s="83"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="4"/>
       <c r="J4" s="21"/>
     </row>
@@ -10155,20 +10152,22 @@
       <c r="B5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="131" t="s">
+      <c r="C5" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="133" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="76" t="s">
         <v>623</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -10182,16 +10181,16 @@
       <c r="B6" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="29" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="76" t="s">
         <v>624</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -10205,16 +10204,16 @@
       <c r="B7" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="28" t="s">
         <v>470</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="76" t="s">
         <v>625</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -10228,18 +10227,18 @@
       <c r="B8" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="76" t="s">
         <v>626</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -10253,18 +10252,18 @@
       <c r="B9" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="29" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="F9" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="80" t="s">
+      <c r="F9" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="76" t="s">
         <v>627</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -10278,20 +10277,20 @@
       <c r="B10" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="80" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="76" t="s">
         <v>628</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -10305,22 +10304,22 @@
       <c r="B11" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="81" t="s">
+      <c r="C11" s="93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="77" t="s">
         <v>629</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="5" t="s">
